--- a/data/pca/factorExposure/factorExposure_2015-07-21.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-07-21.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,21 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +720,112 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>0.02172798561599428</v>
+        <v>-0.01328120127893333</v>
       </c>
       <c r="C2">
-        <v>0.02741629756533866</v>
+        <v>-0.05253369051345144</v>
       </c>
       <c r="D2">
-        <v>0.1259329469904764</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.1435655606852244</v>
+      </c>
+      <c r="E2">
+        <v>-0.004761053673523183</v>
+      </c>
+      <c r="F2">
+        <v>0.01147951412585001</v>
+      </c>
+      <c r="G2">
+        <v>0.1293451055898191</v>
+      </c>
+      <c r="H2">
+        <v>0.06085085290535579</v>
+      </c>
+      <c r="I2">
+        <v>-0.05809459453821087</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>-0.01032814711515799</v>
+        <v>0.0113951586285948</v>
       </c>
       <c r="C3">
-        <v>0.02593359809928506</v>
+        <v>-0.01348922854534801</v>
       </c>
       <c r="D3">
-        <v>0.01390865980575879</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.01243767369996627</v>
+      </c>
+      <c r="E3">
+        <v>0.01595164697513348</v>
+      </c>
+      <c r="F3">
+        <v>-0.01196118105574741</v>
+      </c>
+      <c r="G3">
+        <v>-0.009100488456837516</v>
+      </c>
+      <c r="H3">
+        <v>0.005182768360655162</v>
+      </c>
+      <c r="I3">
+        <v>0.01312874007802252</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>0.03582772660435261</v>
+        <v>-0.01850624808246409</v>
       </c>
       <c r="C4">
-        <v>0.07611661931223961</v>
+        <v>-0.09838936590997345</v>
       </c>
       <c r="D4">
-        <v>0.1386665329973197</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.1459967492061589</v>
+      </c>
+      <c r="E4">
+        <v>0.01545885721005722</v>
+      </c>
+      <c r="F4">
+        <v>0.08767186947154203</v>
+      </c>
+      <c r="G4">
+        <v>0.003054091692429092</v>
+      </c>
+      <c r="H4">
+        <v>0.04434307178039741</v>
+      </c>
+      <c r="I4">
+        <v>-0.03288286013459807</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +836,344 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>0.0267493148225174</v>
+        <v>-0.02997192211275964</v>
       </c>
       <c r="C6">
-        <v>0.01384523822656302</v>
+        <v>-0.02895971823294438</v>
       </c>
       <c r="D6">
-        <v>0.1431261083954676</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.1268452783314718</v>
+      </c>
+      <c r="E6">
+        <v>-0.04019106683948963</v>
+      </c>
+      <c r="F6">
+        <v>0.05012248312652086</v>
+      </c>
+      <c r="G6">
+        <v>0.02381457154169082</v>
+      </c>
+      <c r="H6">
+        <v>0.04162751082847068</v>
+      </c>
+      <c r="I6">
+        <v>0.0170773736344384</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>0.007203836591918237</v>
+        <v>-0.01009897876168489</v>
       </c>
       <c r="C7">
-        <v>0.02374601644068025</v>
+        <v>-0.03332212614704804</v>
       </c>
       <c r="D7">
-        <v>0.1148197809634337</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.1044856569798337</v>
+      </c>
+      <c r="E7">
+        <v>-0.04760998039284962</v>
+      </c>
+      <c r="F7">
+        <v>0.006608004574061427</v>
+      </c>
+      <c r="G7">
+        <v>-0.0006535627967068576</v>
+      </c>
+      <c r="H7">
+        <v>0.07266569935073543</v>
+      </c>
+      <c r="I7">
+        <v>0.01722417398510551</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>0.0009638138165305226</v>
+        <v>0.006149352972243088</v>
       </c>
       <c r="C8">
-        <v>0.02647046986218347</v>
+        <v>-0.0339725691320721</v>
       </c>
       <c r="D8">
-        <v>0.08240531683654417</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.0830851448559367</v>
+      </c>
+      <c r="E8">
+        <v>-0.02008493022027076</v>
+      </c>
+      <c r="F8">
+        <v>0.04108134801374781</v>
+      </c>
+      <c r="G8">
+        <v>0.06727431563832875</v>
+      </c>
+      <c r="H8">
+        <v>0.005249552182350063</v>
+      </c>
+      <c r="I8">
+        <v>0.0304763239827883</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>0.03316821201589602</v>
+        <v>-0.0163008775881842</v>
       </c>
       <c r="C9">
-        <v>0.06620586672340577</v>
+        <v>-0.08368034276075448</v>
       </c>
       <c r="D9">
-        <v>0.1299590876556143</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.1212965195944038</v>
+      </c>
+      <c r="E9">
+        <v>0.006265035950416372</v>
+      </c>
+      <c r="F9">
+        <v>0.05588610711227135</v>
+      </c>
+      <c r="G9">
+        <v>-0.008642887612463474</v>
+      </c>
+      <c r="H9">
+        <v>0.04856116181906065</v>
+      </c>
+      <c r="I9">
+        <v>-0.008330133817421889</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>0.1606375911625015</v>
+        <v>-0.2242536822323994</v>
       </c>
       <c r="C10">
-        <v>-0.1732909724952227</v>
+        <v>0.1084749060216219</v>
       </c>
       <c r="D10">
-        <v>0.0182896853040502</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.0002600450705279792</v>
+      </c>
+      <c r="E10">
+        <v>0.02245705806938951</v>
+      </c>
+      <c r="F10">
+        <v>0.0403053288631457</v>
+      </c>
+      <c r="G10">
+        <v>-0.004222657467355965</v>
+      </c>
+      <c r="H10">
+        <v>-0.05673470980124303</v>
+      </c>
+      <c r="I10">
+        <v>0.1308802055510101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>0.02054289915459041</v>
+        <v>-0.01016312187535974</v>
       </c>
       <c r="C11">
-        <v>0.04275701475054127</v>
+        <v>-0.0521385769281963</v>
       </c>
       <c r="D11">
-        <v>0.05245138569916183</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.04629111917369901</v>
+      </c>
+      <c r="E11">
+        <v>-0.01820971771078524</v>
+      </c>
+      <c r="F11">
+        <v>-0.01052013338834536</v>
+      </c>
+      <c r="G11">
+        <v>-0.002970979164489373</v>
+      </c>
+      <c r="H11">
+        <v>0.0472988428635179</v>
+      </c>
+      <c r="I11">
+        <v>-0.03273236877243181</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>0.02327597653009202</v>
+        <v>-0.01198500376011704</v>
       </c>
       <c r="C12">
-        <v>0.04180240871107407</v>
+        <v>-0.04946241242317809</v>
       </c>
       <c r="D12">
-        <v>0.06544748274653527</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.05022454629117688</v>
+      </c>
+      <c r="E12">
+        <v>-0.01435873147363553</v>
+      </c>
+      <c r="F12">
+        <v>-0.01481176230970841</v>
+      </c>
+      <c r="G12">
+        <v>-0.01771900148896154</v>
+      </c>
+      <c r="H12">
+        <v>0.07138523070617077</v>
+      </c>
+      <c r="I12">
+        <v>-0.01930270622199892</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>0.005504982799648871</v>
+        <v>-0.006189338754288372</v>
       </c>
       <c r="C13">
-        <v>0.02991241089807034</v>
+        <v>-0.04619394934547569</v>
       </c>
       <c r="D13">
-        <v>0.1552912766540659</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.1538820265843825</v>
+      </c>
+      <c r="E13">
+        <v>-0.03703911430531564</v>
+      </c>
+      <c r="F13">
+        <v>0.03427222476335468</v>
+      </c>
+      <c r="G13">
+        <v>0.02286488017472025</v>
+      </c>
+      <c r="H13">
+        <v>0.08196512046187066</v>
+      </c>
+      <c r="I13">
+        <v>0.05695308355811535</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>-0.001789626382050223</v>
+        <v>-0.002150205207458922</v>
       </c>
       <c r="C14">
-        <v>0.02050445004525322</v>
+        <v>-0.0287074207150434</v>
       </c>
       <c r="D14">
-        <v>0.1074725092228795</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.1034289954733593</v>
+      </c>
+      <c r="E14">
+        <v>-0.0261338263726855</v>
+      </c>
+      <c r="F14">
+        <v>0.02239579276134605</v>
+      </c>
+      <c r="G14">
+        <v>0.02492400348819562</v>
+      </c>
+      <c r="H14">
+        <v>0.1119739592285952</v>
+      </c>
+      <c r="I14">
+        <v>0.01861864148987054</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B15">
-        <v>-0.001117145642879261</v>
+        <v>0.0006215766114481065</v>
       </c>
       <c r="C15">
-        <v>0.01028262398936717</v>
+        <v>-0.01918965518601863</v>
       </c>
       <c r="D15">
-        <v>0.02439144953424309</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.05075301642577474</v>
+      </c>
+      <c r="E15">
+        <v>-0.004945098362270674</v>
+      </c>
+      <c r="F15">
+        <v>0.001594343517136332</v>
+      </c>
+      <c r="G15">
+        <v>0.0206098778504257</v>
+      </c>
+      <c r="H15">
+        <v>0.0140724573575194</v>
+      </c>
+      <c r="I15">
+        <v>-0.02341264652902061</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>0.02073154244755144</v>
+        <v>-0.01105455597465634</v>
       </c>
       <c r="C16">
-        <v>0.03990266871352962</v>
+        <v>-0.04790218777376907</v>
       </c>
       <c r="D16">
-        <v>0.06022288377003377</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.04715636345944074</v>
+      </c>
+      <c r="E16">
+        <v>-0.01867467379966282</v>
+      </c>
+      <c r="F16">
+        <v>-0.006789363580011292</v>
+      </c>
+      <c r="G16">
+        <v>-0.01304468130584087</v>
+      </c>
+      <c r="H16">
+        <v>0.05149911163954721</v>
+      </c>
+      <c r="I16">
+        <v>-0.03003005550619118</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1184,25 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1213,257 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>0.0075158766755291</v>
+        <v>-0.001161643931222502</v>
       </c>
       <c r="C19">
-        <v>0.02664566996407126</v>
+        <v>-0.02402821701830852</v>
       </c>
       <c r="D19">
-        <v>0.1337814058537074</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.08480182185312032</v>
+      </c>
+      <c r="E19">
+        <v>0.01943891149717723</v>
+      </c>
+      <c r="F19">
+        <v>0.009287133784492573</v>
+      </c>
+      <c r="G19">
+        <v>0.01881384707776421</v>
+      </c>
+      <c r="H19">
+        <v>0.08065851091162045</v>
+      </c>
+      <c r="I19">
+        <v>0.04215644499325339</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>0.004088463715977106</v>
+        <v>-0.004149688371644296</v>
       </c>
       <c r="C20">
-        <v>0.02768387963597904</v>
+        <v>-0.03890469462950923</v>
       </c>
       <c r="D20">
-        <v>0.09626855563967129</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.09946780771477458</v>
+      </c>
+      <c r="E20">
+        <v>-0.003572741880774164</v>
+      </c>
+      <c r="F20">
+        <v>0.02732846860181851</v>
+      </c>
+      <c r="G20">
+        <v>0.005680034656546379</v>
+      </c>
+      <c r="H20">
+        <v>0.05521763535394076</v>
+      </c>
+      <c r="I20">
+        <v>0.0001618613129957203</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>0.006803934264243539</v>
+        <v>-0.003841635273654169</v>
       </c>
       <c r="C21">
-        <v>0.03543608666572035</v>
+        <v>-0.04279470752057893</v>
       </c>
       <c r="D21">
-        <v>0.1721994150573772</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.1396306793668846</v>
+      </c>
+      <c r="E21">
+        <v>0.004216495052122893</v>
+      </c>
+      <c r="F21">
+        <v>0.07423861882923265</v>
+      </c>
+      <c r="G21">
+        <v>0.02570659974467255</v>
+      </c>
+      <c r="H21">
+        <v>0.1742194365297816</v>
+      </c>
+      <c r="I21">
+        <v>0.106380919375762</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B22">
-        <v>-0.0006148827257519105</v>
+        <v>0.008955626702867946</v>
       </c>
       <c r="C22">
-        <v>0.06113777031183334</v>
+        <v>-0.07964118243552273</v>
       </c>
       <c r="D22">
-        <v>0.1969962516259131</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.2495666900061194</v>
+      </c>
+      <c r="E22">
+        <v>-0.04234271363547364</v>
+      </c>
+      <c r="F22">
+        <v>0.02104943841645062</v>
+      </c>
+      <c r="G22">
+        <v>0.3241185674527367</v>
+      </c>
+      <c r="H22">
+        <v>-0.4165707993028496</v>
+      </c>
+      <c r="I22">
+        <v>-0.08806612274157409</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B23">
-        <v>-0.0003899645067959778</v>
+        <v>0.008528464914544578</v>
       </c>
       <c r="C23">
-        <v>0.06162018986414247</v>
+        <v>-0.0805602290998879</v>
       </c>
       <c r="D23">
-        <v>0.1965744099949413</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.2501780581960575</v>
+      </c>
+      <c r="E23">
+        <v>-0.03929745322203861</v>
+      </c>
+      <c r="F23">
+        <v>0.02035177515624262</v>
+      </c>
+      <c r="G23">
+        <v>0.3227795630830816</v>
+      </c>
+      <c r="H23">
+        <v>-0.4169359659171211</v>
+      </c>
+      <c r="I23">
+        <v>-0.0898206358728422</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>0.02667162275169619</v>
+        <v>-0.01119724351702706</v>
       </c>
       <c r="C24">
-        <v>0.05762300241508808</v>
+        <v>-0.06453347654034283</v>
       </c>
       <c r="D24">
-        <v>0.07171248970452604</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.05549103713596595</v>
+      </c>
+      <c r="E24">
+        <v>-0.02191637407866823</v>
+      </c>
+      <c r="F24">
+        <v>-0.004237256575216296</v>
+      </c>
+      <c r="G24">
+        <v>-0.005280850427838574</v>
+      </c>
+      <c r="H24">
+        <v>0.07532258715779608</v>
+      </c>
+      <c r="I24">
+        <v>-0.03003518087788546</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>0.0298913942186816</v>
+        <v>-0.01517660170911973</v>
       </c>
       <c r="C25">
-        <v>0.04865608250009577</v>
+        <v>-0.05984749088960876</v>
       </c>
       <c r="D25">
-        <v>0.06571688448342813</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.05302878452729458</v>
+      </c>
+      <c r="E25">
+        <v>-0.009048874077595578</v>
+      </c>
+      <c r="F25">
+        <v>-0.006613694584286961</v>
+      </c>
+      <c r="G25">
+        <v>-0.01197273565115559</v>
+      </c>
+      <c r="H25">
+        <v>0.04551774641221478</v>
+      </c>
+      <c r="I25">
+        <v>-0.01737707367826682</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>0.007061764627810099</v>
+        <v>-0.007536908552082916</v>
       </c>
       <c r="C26">
-        <v>0.01674734707952524</v>
+        <v>-0.025588113104233</v>
       </c>
       <c r="D26">
-        <v>0.08419426389611626</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.07168094307708509</v>
+      </c>
+      <c r="E26">
+        <v>-0.02111332040535998</v>
+      </c>
+      <c r="F26">
+        <v>0.02305377730145408</v>
+      </c>
+      <c r="G26">
+        <v>0.003742164449244141</v>
+      </c>
+      <c r="H26">
+        <v>0.07830541762368617</v>
+      </c>
+      <c r="I26">
+        <v>0.04970649745372777</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1474,286 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>0.2432978266622804</v>
+        <v>-0.3158614410138019</v>
       </c>
       <c r="C28">
-        <v>-0.2142477470463723</v>
+        <v>0.1196305396785613</v>
       </c>
       <c r="D28">
-        <v>0.02408432645177741</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.008364372826781373</v>
+      </c>
+      <c r="E28">
+        <v>0.04864854790794053</v>
+      </c>
+      <c r="F28">
+        <v>0.03936289610150685</v>
+      </c>
+      <c r="G28">
+        <v>0.01795427319590555</v>
+      </c>
+      <c r="H28">
+        <v>-0.02825974734753235</v>
+      </c>
+      <c r="I28">
+        <v>0.1416199508567033</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>-3.458694208177119e-05</v>
+        <v>-0.0007878808397932661</v>
       </c>
       <c r="C29">
-        <v>0.02303975393787976</v>
+        <v>-0.03075453192987058</v>
       </c>
       <c r="D29">
-        <v>0.1022342686325994</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.09841951180698932</v>
+      </c>
+      <c r="E29">
+        <v>-0.0377729132919206</v>
+      </c>
+      <c r="F29">
+        <v>0.02846612699758753</v>
+      </c>
+      <c r="G29">
+        <v>0.01052917200571257</v>
+      </c>
+      <c r="H29">
+        <v>0.1146030305645082</v>
+      </c>
+      <c r="I29">
+        <v>0.01761464873690176</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>0.02332073988297653</v>
+        <v>-0.01730818681804665</v>
       </c>
       <c r="C30">
-        <v>0.06268119039519406</v>
+        <v>-0.08338191440513956</v>
       </c>
       <c r="D30">
-        <v>0.1644003450900354</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.1632083900201774</v>
+      </c>
+      <c r="E30">
+        <v>-0.04095671146239114</v>
+      </c>
+      <c r="F30">
+        <v>0.0313115126478317</v>
+      </c>
+      <c r="G30">
+        <v>0.02984887611225467</v>
+      </c>
+      <c r="H30">
+        <v>0.03696274934530003</v>
+      </c>
+      <c r="I30">
+        <v>-0.06851449511232892</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>0.04384083971073503</v>
+        <v>-0.0133378617385073</v>
       </c>
       <c r="C31">
-        <v>0.08570606628637144</v>
+        <v>-0.09261924101720262</v>
       </c>
       <c r="D31">
-        <v>0.07827813506562607</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.04686735797552005</v>
+      </c>
+      <c r="E31">
+        <v>-0.008007630642860411</v>
+      </c>
+      <c r="F31">
+        <v>0.01594056117442491</v>
+      </c>
+      <c r="G31">
+        <v>0.00651777357583577</v>
+      </c>
+      <c r="H31">
+        <v>0.05210681148864327</v>
+      </c>
+      <c r="I31">
+        <v>0.08093269658525461</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>0.01941233237337666</v>
+        <v>-0.01138330177097867</v>
       </c>
       <c r="C32">
-        <v>0.0377553224969002</v>
+        <v>-0.04540160305441577</v>
       </c>
       <c r="D32">
-        <v>0.1065251486929617</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.1107171625412698</v>
+      </c>
+      <c r="E32">
+        <v>0.008645287697747835</v>
+      </c>
+      <c r="F32">
+        <v>0.04301972884141611</v>
+      </c>
+      <c r="G32">
+        <v>0.03224706292517098</v>
+      </c>
+      <c r="H32">
+        <v>0.02847048275570198</v>
+      </c>
+      <c r="I32">
+        <v>0.06855419277010531</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>0.01563062084996675</v>
+        <v>-0.008855824152527735</v>
       </c>
       <c r="C33">
-        <v>0.04378215671657288</v>
+        <v>-0.05673448384946504</v>
       </c>
       <c r="D33">
-        <v>0.1524606806430669</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.1308274912352531</v>
+      </c>
+      <c r="E33">
+        <v>-0.009219400575252827</v>
+      </c>
+      <c r="F33">
+        <v>0.02705898376567454</v>
+      </c>
+      <c r="G33">
+        <v>0.02069265587063613</v>
+      </c>
+      <c r="H33">
+        <v>0.06720625012779669</v>
+      </c>
+      <c r="I33">
+        <v>0.02083071860420285</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>0.02589618631001201</v>
+        <v>-0.009686213842806544</v>
       </c>
       <c r="C34">
-        <v>0.05733660522711272</v>
+        <v>-0.06134906547561517</v>
       </c>
       <c r="D34">
-        <v>0.05007610151250732</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.03324417253227858</v>
+      </c>
+      <c r="E34">
+        <v>-0.02771962648506688</v>
+      </c>
+      <c r="F34">
+        <v>-0.03412420254334026</v>
+      </c>
+      <c r="G34">
+        <v>-0.006054178626239937</v>
+      </c>
+      <c r="H34">
+        <v>0.06104093681831615</v>
+      </c>
+      <c r="I34">
+        <v>-0.005805034002871361</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>-0.001241137113185506</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>-0.004511950868526463</v>
       </c>
       <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01464296144782286</v>
+      </c>
+      <c r="E35">
+        <v>-0.003052899422350953</v>
+      </c>
+      <c r="F35">
+        <v>0.001051588361298923</v>
+      </c>
+      <c r="G35">
+        <v>-0.001120386397674671</v>
+      </c>
+      <c r="H35">
+        <v>0.009975717330855276</v>
+      </c>
+      <c r="I35">
+        <v>-0.005713971813812908</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>0.008987547256226393</v>
+        <v>-0.009705404980936857</v>
       </c>
       <c r="C36">
-        <v>0.007108772953609439</v>
+        <v>-0.01975660354859678</v>
       </c>
       <c r="D36">
-        <v>0.09994955776169244</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.08250757767541257</v>
+      </c>
+      <c r="E36">
+        <v>-0.005204855038187896</v>
+      </c>
+      <c r="F36">
+        <v>0.03596694156337367</v>
+      </c>
+      <c r="G36">
+        <v>0.006735247130810553</v>
+      </c>
+      <c r="H36">
+        <v>0.06239658949930116</v>
+      </c>
+      <c r="I36">
+        <v>0.03613993722201754</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1764,141 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>0.01009064268070565</v>
+        <v>-0.01653622527163708</v>
       </c>
       <c r="C38">
-        <v>0.007341302125174412</v>
+        <v>-0.01543410958555308</v>
       </c>
       <c r="D38">
-        <v>0.09377318952391779</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.08673266062327231</v>
+      </c>
+      <c r="E38">
+        <v>0.01314673051678909</v>
+      </c>
+      <c r="F38">
+        <v>-0.006747508962444432</v>
+      </c>
+      <c r="G38">
+        <v>0.02700799747269855</v>
+      </c>
+      <c r="H38">
+        <v>0.05518801004393451</v>
+      </c>
+      <c r="I38">
+        <v>0.04565530128941939</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>0.02015483971418252</v>
+        <v>-0.007862000144070307</v>
       </c>
       <c r="C39">
-        <v>0.05875260464377357</v>
+        <v>-0.07516969564486416</v>
       </c>
       <c r="D39">
-        <v>0.116364408670395</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.1081133202576245</v>
+      </c>
+      <c r="E39">
+        <v>-0.04616469110508865</v>
+      </c>
+      <c r="F39">
+        <v>-0.005072765489319807</v>
+      </c>
+      <c r="G39">
+        <v>-0.005218647228706597</v>
+      </c>
+      <c r="H39">
+        <v>0.1001821474165454</v>
+      </c>
+      <c r="I39">
+        <v>-0.0627886062483375</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>0.01196013675577993</v>
+        <v>-0.01292602996787602</v>
       </c>
       <c r="C40">
-        <v>0.01887075430159092</v>
+        <v>-0.02665700980581906</v>
       </c>
       <c r="D40">
-        <v>0.1140229702911106</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.09504967183154055</v>
+      </c>
+      <c r="E40">
+        <v>-0.03878233143200056</v>
+      </c>
+      <c r="F40">
+        <v>-0.02342259484100469</v>
+      </c>
+      <c r="G40">
+        <v>0.06368045947080078</v>
+      </c>
+      <c r="H40">
+        <v>0.07812627973800336</v>
+      </c>
+      <c r="I40">
+        <v>0.03917211927168787</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>0.01424592191613075</v>
+        <v>-0.01244875963659587</v>
       </c>
       <c r="C41">
-        <v>0.009191970167805824</v>
+        <v>-0.01759132893976083</v>
       </c>
       <c r="D41">
-        <v>0.06735759036059163</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.04666598695187335</v>
+      </c>
+      <c r="E41">
+        <v>0.02609863175362233</v>
+      </c>
+      <c r="F41">
+        <v>0.01950779397781988</v>
+      </c>
+      <c r="G41">
+        <v>0.02668485192979534</v>
+      </c>
+      <c r="H41">
+        <v>0.04882345520081283</v>
+      </c>
+      <c r="I41">
+        <v>0.0541055029326858</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1909,83 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>0.00755988588526924</v>
+        <v>-0.006112402637103862</v>
       </c>
       <c r="C43">
-        <v>0.01315836069872732</v>
+        <v>-0.01841491851670569</v>
       </c>
       <c r="D43">
-        <v>0.0844320301377806</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.06115399176684878</v>
+      </c>
+      <c r="E43">
+        <v>0.009626378234855321</v>
+      </c>
+      <c r="F43">
+        <v>0.01956946866394666</v>
+      </c>
+      <c r="G43">
+        <v>0.02553254481150287</v>
+      </c>
+      <c r="H43">
+        <v>0.0795586157828178</v>
+      </c>
+      <c r="I43">
+        <v>0.04806032376304335</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>0.01441023659725654</v>
+        <v>-0.01026604615179985</v>
       </c>
       <c r="C44">
-        <v>0.03137839234056896</v>
+        <v>-0.04698123453758295</v>
       </c>
       <c r="D44">
-        <v>0.1115653444002647</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.1173911987630707</v>
+      </c>
+      <c r="E44">
+        <v>-0.01872337065322315</v>
+      </c>
+      <c r="F44">
+        <v>0.02149976601642798</v>
+      </c>
+      <c r="G44">
+        <v>0.02261059308115883</v>
+      </c>
+      <c r="H44">
+        <v>0.03625283975186423</v>
+      </c>
+      <c r="I44">
+        <v>-0.06924811195614683</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1996,112 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>0.009469740800854722</v>
+        <v>-0.0001450196014023426</v>
       </c>
       <c r="C46">
-        <v>0.03177690316305688</v>
+        <v>-0.04156508575328333</v>
       </c>
       <c r="D46">
-        <v>0.1032623801192974</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.08689264478498758</v>
+      </c>
+      <c r="E46">
+        <v>-0.02024332115658701</v>
+      </c>
+      <c r="F46">
+        <v>0.02776359854381162</v>
+      </c>
+      <c r="G46">
+        <v>0.02741182921230171</v>
+      </c>
+      <c r="H46">
+        <v>0.128451178114992</v>
+      </c>
+      <c r="I46">
+        <v>0.03006855408107816</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>0.08308089136016988</v>
+        <v>-0.03887311945880161</v>
       </c>
       <c r="C47">
-        <v>0.1065304453892771</v>
+        <v>-0.122187965255882</v>
       </c>
       <c r="D47">
-        <v>0.06405233232786205</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.02797996471428649</v>
+      </c>
+      <c r="E47">
+        <v>0.01864388443506307</v>
+      </c>
+      <c r="F47">
+        <v>-0.009706476481690712</v>
+      </c>
+      <c r="G47">
+        <v>-0.04663536437148041</v>
+      </c>
+      <c r="H47">
+        <v>0.04953009040317013</v>
+      </c>
+      <c r="I47">
+        <v>0.137540521421635</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>0.005583211472781303</v>
+        <v>-0.006429267426565914</v>
       </c>
       <c r="C48">
-        <v>0.01819587777597465</v>
+        <v>-0.02787060762096895</v>
       </c>
       <c r="D48">
-        <v>0.09953461759516376</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.08448971715644148</v>
+      </c>
+      <c r="E48">
+        <v>0.008701213231238505</v>
+      </c>
+      <c r="F48">
+        <v>0.03984344902713588</v>
+      </c>
+      <c r="G48">
+        <v>0.01421309621805169</v>
+      </c>
+      <c r="H48">
+        <v>0.08672352960197059</v>
+      </c>
+      <c r="I48">
+        <v>0.02684893018654371</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +2112,83 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>0.0418426849019101</v>
+        <v>-0.01557176196380612</v>
       </c>
       <c r="C50">
-        <v>0.06255143610358183</v>
+        <v>-0.07486052745263713</v>
       </c>
       <c r="D50">
-        <v>0.07752412266354203</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.05181471975326309</v>
+      </c>
+      <c r="E50">
+        <v>-0.0004956428058794524</v>
+      </c>
+      <c r="F50">
+        <v>0.0103559639450235</v>
+      </c>
+      <c r="G50">
+        <v>0.02772404825395743</v>
+      </c>
+      <c r="H50">
+        <v>0.04323770024677036</v>
+      </c>
+      <c r="I50">
+        <v>0.1348401996328491</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>0.004394857495351328</v>
+        <v>-0.003613652196603303</v>
       </c>
       <c r="C51">
-        <v>0.005889455760820321</v>
+        <v>-0.01743483917847148</v>
       </c>
       <c r="D51">
-        <v>0.06607276141280467</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.0711293895042268</v>
+      </c>
+      <c r="E51">
+        <v>-0.0369527700819342</v>
+      </c>
+      <c r="F51">
+        <v>0.03476326159355651</v>
+      </c>
+      <c r="G51">
+        <v>0.03896344901053375</v>
+      </c>
+      <c r="H51">
+        <v>0.04168608504999566</v>
+      </c>
+      <c r="I51">
+        <v>-0.00306841843206173</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2199,141 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>0.1096263157528032</v>
+        <v>-0.06326798666980614</v>
       </c>
       <c r="C53">
-        <v>0.1214079434345832</v>
+        <v>-0.1546545317731658</v>
       </c>
       <c r="D53">
-        <v>0.02533381019640307</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.009490271764142579</v>
+      </c>
+      <c r="E53">
+        <v>0.03361218240089449</v>
+      </c>
+      <c r="F53">
+        <v>0.05124409231738598</v>
+      </c>
+      <c r="G53">
+        <v>0.005736464877613133</v>
+      </c>
+      <c r="H53">
+        <v>0.007262941432477874</v>
+      </c>
+      <c r="I53">
+        <v>0.09156168413201346</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>0.01725085987339645</v>
+        <v>-0.0112141480053614</v>
       </c>
       <c r="C54">
-        <v>0.02493771248914875</v>
+        <v>-0.04024365999696482</v>
       </c>
       <c r="D54">
-        <v>0.1089514327518884</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.08549848366999334</v>
+      </c>
+      <c r="E54">
+        <v>-0.007895482686934392</v>
+      </c>
+      <c r="F54">
+        <v>-0.002762832874199731</v>
+      </c>
+      <c r="G54">
+        <v>0.03348298548099687</v>
+      </c>
+      <c r="H54">
+        <v>0.08804136175728869</v>
+      </c>
+      <c r="I54">
+        <v>0.05620697351080357</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>0.09743281413945425</v>
+        <v>-0.05105613551658058</v>
       </c>
       <c r="C55">
-        <v>0.101420669117363</v>
+        <v>-0.1258557317882363</v>
       </c>
       <c r="D55">
-        <v>0.009310933957733292</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.02344353128916092</v>
+      </c>
+      <c r="E55">
+        <v>-0.001759222162305023</v>
+      </c>
+      <c r="F55">
+        <v>0.01869689141694915</v>
+      </c>
+      <c r="G55">
+        <v>0.01418844593758866</v>
+      </c>
+      <c r="H55">
+        <v>0.01557464597788708</v>
+      </c>
+      <c r="I55">
+        <v>0.09255341698381238</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>0.1380561953750202</v>
+        <v>-0.07236430669041191</v>
       </c>
       <c r="C56">
-        <v>0.1334743022801065</v>
+        <v>-0.1823136731744907</v>
       </c>
       <c r="D56">
-        <v>0.007406822202332519</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.02309893568740555</v>
+      </c>
+      <c r="E56">
+        <v>0.0304653363757607</v>
+      </c>
+      <c r="F56">
+        <v>0.01693054567189358</v>
+      </c>
+      <c r="G56">
+        <v>0.05594762170256491</v>
+      </c>
+      <c r="H56">
+        <v>-0.003438777684391292</v>
+      </c>
+      <c r="I56">
+        <v>0.1150312518989201</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2344,141 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>-0.004441320417473214</v>
+        <v>-0.006177825982456179</v>
       </c>
       <c r="C58">
-        <v>0.01800481520114966</v>
+        <v>-0.04900391728115597</v>
       </c>
       <c r="D58">
-        <v>0.2222063562150785</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.2817976533085463</v>
+      </c>
+      <c r="E58">
+        <v>0.02618485105589407</v>
+      </c>
+      <c r="F58">
+        <v>0.08469397543557458</v>
+      </c>
+      <c r="G58">
+        <v>0.1194351516969506</v>
+      </c>
+      <c r="H58">
+        <v>-0.1182123834952111</v>
+      </c>
+      <c r="I58">
+        <v>-0.08596904374392431</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>0.1710615666941737</v>
+        <v>-0.2435600737464982</v>
       </c>
       <c r="C59">
-        <v>-0.1574574367300491</v>
+        <v>0.08490689681118856</v>
       </c>
       <c r="D59">
-        <v>0.05188082815555467</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.06053454798788373</v>
+      </c>
+      <c r="E59">
+        <v>0.02795795005555866</v>
+      </c>
+      <c r="F59">
+        <v>0.01286895184195159</v>
+      </c>
+      <c r="G59">
+        <v>-0.007145987905441382</v>
+      </c>
+      <c r="H59">
+        <v>-0.01957576309375662</v>
+      </c>
+      <c r="I59">
+        <v>0.02945348032684061</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>0.1984217697390568</v>
+        <v>-0.15681100066801</v>
       </c>
       <c r="C60">
-        <v>0.09794378705373009</v>
+        <v>-0.168104964195207</v>
       </c>
       <c r="D60">
-        <v>0.1554274136701737</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.08694107334790305</v>
+      </c>
+      <c r="E60">
+        <v>-0.231538748626641</v>
+      </c>
+      <c r="F60">
+        <v>-0.1654954195914301</v>
+      </c>
+      <c r="G60">
+        <v>-0.2336072542209192</v>
+      </c>
+      <c r="H60">
+        <v>-0.1734718328239579</v>
+      </c>
+      <c r="I60">
+        <v>-0.03110958062955701</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>0.03073000515949394</v>
+        <v>-0.01488677394140506</v>
       </c>
       <c r="C61">
-        <v>0.0550292809904772</v>
+        <v>-0.07073428785089211</v>
       </c>
       <c r="D61">
-        <v>0.1104867639150842</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.08695254639670538</v>
+      </c>
+      <c r="E61">
+        <v>-0.03395299007531358</v>
+      </c>
+      <c r="F61">
+        <v>-0.01333386912773299</v>
+      </c>
+      <c r="G61">
+        <v>-0.02047568976241196</v>
+      </c>
+      <c r="H61">
+        <v>0.09460072186341481</v>
+      </c>
+      <c r="I61">
+        <v>-0.01710481564141223</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2489,228 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>0.01086059683826243</v>
+        <v>-0.00464743897934968</v>
       </c>
       <c r="C63">
-        <v>0.02562726438388797</v>
+        <v>-0.03566231279761543</v>
       </c>
       <c r="D63">
-        <v>0.09583067127497129</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.07268398448599687</v>
+      </c>
+      <c r="E63">
+        <v>-0.02448252633164811</v>
+      </c>
+      <c r="F63">
+        <v>0.02229978835628945</v>
+      </c>
+      <c r="G63">
+        <v>0.01873311225081824</v>
+      </c>
+      <c r="H63">
+        <v>0.05970095620336249</v>
+      </c>
+      <c r="I63">
+        <v>0.008052091671006652</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>0.06047651516972063</v>
+        <v>-0.0246044719232754</v>
       </c>
       <c r="C64">
-        <v>0.08528891480244306</v>
+        <v>-0.1041986608709963</v>
       </c>
       <c r="D64">
-        <v>0.04657815807797251</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.03214400622650941</v>
+      </c>
+      <c r="E64">
+        <v>-0.02595791485863175</v>
+      </c>
+      <c r="F64">
+        <v>0.02517633825483654</v>
+      </c>
+      <c r="G64">
+        <v>-0.03858205786035443</v>
+      </c>
+      <c r="H64">
+        <v>0.1156540043492169</v>
+      </c>
+      <c r="I64">
+        <v>-0.05560891393942127</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>0.02862612472414737</v>
+        <v>-0.02314082443778921</v>
       </c>
       <c r="C65">
-        <v>0.01709757175278406</v>
+        <v>-0.03785629443924593</v>
       </c>
       <c r="D65">
-        <v>0.1195785191891355</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.1115909935620385</v>
+      </c>
+      <c r="E65">
+        <v>-0.03498852654900345</v>
+      </c>
+      <c r="F65">
+        <v>0.003237738483468727</v>
+      </c>
+      <c r="G65">
+        <v>-0.0002336647355187134</v>
+      </c>
+      <c r="H65">
+        <v>0.01881618775130774</v>
+      </c>
+      <c r="I65">
+        <v>0.01161756812155595</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>0.02307534193223182</v>
+        <v>-0.006129678621425909</v>
       </c>
       <c r="C66">
-        <v>0.06588536756569306</v>
+        <v>-0.08987182741808256</v>
       </c>
       <c r="D66">
-        <v>0.1204086830470764</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1309200553750293</v>
+      </c>
+      <c r="E66">
+        <v>-0.03257854079072584</v>
+      </c>
+      <c r="F66">
+        <v>-0.01463653431460768</v>
+      </c>
+      <c r="G66">
+        <v>0.006684198584257578</v>
+      </c>
+      <c r="H66">
+        <v>0.05484473457443309</v>
+      </c>
+      <c r="I66">
+        <v>-0.06896693303648731</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>0.02950398427838995</v>
+        <v>-0.02694833588903332</v>
       </c>
       <c r="C67">
-        <v>0.01882905502271181</v>
+        <v>-0.02778821208471447</v>
       </c>
       <c r="D67">
-        <v>0.04849634629737141</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.03644839711209509</v>
+      </c>
+      <c r="E67">
+        <v>-0.002235136278839023</v>
+      </c>
+      <c r="F67">
+        <v>-0.02802110662791425</v>
+      </c>
+      <c r="G67">
+        <v>0.01361377014104938</v>
+      </c>
+      <c r="H67">
+        <v>0.06775197146664882</v>
+      </c>
+      <c r="I67">
+        <v>0.03533645399973876</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>0.2062335189117715</v>
+        <v>-0.2688600980295683</v>
       </c>
       <c r="C68">
-        <v>-0.1731063022280964</v>
+        <v>0.08373116612442981</v>
       </c>
       <c r="D68">
-        <v>0.03813956541956032</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.03569191754096005</v>
+      </c>
+      <c r="E68">
+        <v>-0.006400359915331202</v>
+      </c>
+      <c r="F68">
+        <v>0.02784173455471922</v>
+      </c>
+      <c r="G68">
+        <v>0.06541663287102445</v>
+      </c>
+      <c r="H68">
+        <v>-0.04844061001605925</v>
+      </c>
+      <c r="I68">
+        <v>0.1178742473773933</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>0.06204413027999255</v>
+        <v>-0.02518528522803296</v>
       </c>
       <c r="C69">
-        <v>0.1165359148912948</v>
+        <v>-0.1201882230973928</v>
       </c>
       <c r="D69">
-        <v>0.08669859549131642</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.04127316354099808</v>
+      </c>
+      <c r="E69">
+        <v>-0.002745913224888231</v>
+      </c>
+      <c r="F69">
+        <v>-0.01071629474483123</v>
+      </c>
+      <c r="G69">
+        <v>-0.03244894867984217</v>
+      </c>
+      <c r="H69">
+        <v>0.05189044591452665</v>
+      </c>
+      <c r="I69">
+        <v>0.09863804274829194</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2721,750 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>0.2089622489953849</v>
+        <v>-0.2688796668451653</v>
       </c>
       <c r="C71">
-        <v>-0.187792780828538</v>
+        <v>0.09796819307921786</v>
       </c>
       <c r="D71">
-        <v>0.03249109985486481</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.02224635679570545</v>
+      </c>
+      <c r="E71">
+        <v>0.008485391769404715</v>
+      </c>
+      <c r="F71">
+        <v>0.01817216527271813</v>
+      </c>
+      <c r="G71">
+        <v>0.04118792272029261</v>
+      </c>
+      <c r="H71">
+        <v>0.01399305944222887</v>
+      </c>
+      <c r="I71">
+        <v>0.1664579628574629</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>0.1062377885223881</v>
+        <v>-0.06285133055335032</v>
       </c>
       <c r="C72">
-        <v>0.07613561674074089</v>
+        <v>-0.1212426432248099</v>
       </c>
       <c r="D72">
-        <v>0.0916364695618315</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.06247624447441628</v>
+      </c>
+      <c r="E72">
+        <v>-0.09027541097023793</v>
+      </c>
+      <c r="F72">
+        <v>-0.01820613040970982</v>
+      </c>
+      <c r="G72">
+        <v>-0.02588475465476691</v>
+      </c>
+      <c r="H72">
+        <v>0.05770826325538957</v>
+      </c>
+      <c r="I72">
+        <v>-0.04702142187272493</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>0.1763169613394045</v>
+        <v>-0.1407700217868155</v>
       </c>
       <c r="C73">
-        <v>0.05920120578945692</v>
+        <v>-0.1333636073228729</v>
       </c>
       <c r="D73">
-        <v>0.2021461375778738</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.09324961684004458</v>
+      </c>
+      <c r="E73">
+        <v>-0.3878726869719107</v>
+      </c>
+      <c r="F73">
+        <v>-0.2515426756577059</v>
+      </c>
+      <c r="G73">
+        <v>-0.4400154487185993</v>
+      </c>
+      <c r="H73">
+        <v>-0.1421939190947898</v>
+      </c>
+      <c r="I73">
+        <v>-0.08006501721992938</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>0.1093090816269746</v>
+        <v>-0.05809576353555428</v>
       </c>
       <c r="C74">
-        <v>0.1102874945298858</v>
+        <v>-0.1411913413676689</v>
       </c>
       <c r="D74">
-        <v>-0.01678708921448864</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.03869162716145148</v>
+      </c>
+      <c r="E74">
+        <v>0.01232285938679095</v>
+      </c>
+      <c r="F74">
+        <v>0.04862065052015372</v>
+      </c>
+      <c r="G74">
+        <v>0.003123657167443879</v>
+      </c>
+      <c r="H74">
+        <v>-0.002742989255492752</v>
+      </c>
+      <c r="I74">
+        <v>0.1176938674809439</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>0.239696230098913</v>
+        <v>-0.1323923321850733</v>
       </c>
       <c r="C75">
-        <v>0.1912573224680623</v>
+        <v>-0.262998604685404</v>
       </c>
       <c r="D75">
-        <v>-0.1032834848349081</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.1356416441873837</v>
+      </c>
+      <c r="E75">
+        <v>0.08521444780255816</v>
+      </c>
+      <c r="F75">
+        <v>-0.03216322594888375</v>
+      </c>
+      <c r="G75">
+        <v>0.09404917357541069</v>
+      </c>
+      <c r="H75">
+        <v>-0.003521080281677149</v>
+      </c>
+      <c r="I75">
+        <v>0.09507284000991395</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>0.1463678106467909</v>
+        <v>-0.07461508336836552</v>
       </c>
       <c r="C76">
-        <v>0.1352848307949695</v>
+        <v>-0.1810714483141345</v>
       </c>
       <c r="D76">
-        <v>0.01836469719467508</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.02985830583980327</v>
+      </c>
+      <c r="E76">
+        <v>0.02792874623067973</v>
+      </c>
+      <c r="F76">
+        <v>0.008293197783220326</v>
+      </c>
+      <c r="G76">
+        <v>0.05089176991290125</v>
+      </c>
+      <c r="H76">
+        <v>0.03793091245568091</v>
+      </c>
+      <c r="I76">
+        <v>0.1199396739774836</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>0.02345514410934232</v>
+        <v>-0.03228769895739719</v>
       </c>
       <c r="C77">
-        <v>0.08061664601143123</v>
+        <v>-0.0935961393077361</v>
       </c>
       <c r="D77">
-        <v>0.08085382119771509</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.2441977020927067</v>
+      </c>
+      <c r="E77">
+        <v>0.7628720244222325</v>
+      </c>
+      <c r="F77">
+        <v>-0.3323122704656141</v>
+      </c>
+      <c r="G77">
+        <v>-0.3156895461536131</v>
+      </c>
+      <c r="H77">
+        <v>-0.2376109458852927</v>
+      </c>
+      <c r="I77">
+        <v>0.0393280151120089</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>0.0245110108100149</v>
+        <v>-0.0159187789186883</v>
       </c>
       <c r="C78">
-        <v>0.07224894040346147</v>
+        <v>-0.08682933349713835</v>
       </c>
       <c r="D78">
-        <v>0.1536475097736565</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1425736895032276</v>
+      </c>
+      <c r="E78">
+        <v>-0.04443358543150455</v>
+      </c>
+      <c r="F78">
+        <v>0.04495772712881728</v>
+      </c>
+      <c r="G78">
+        <v>0.03567659049853414</v>
+      </c>
+      <c r="H78">
+        <v>0.02358619936389868</v>
+      </c>
+      <c r="I78">
+        <v>0.008458571508598136</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B79">
-        <v>0.08521332285222406</v>
+        <v>-0.04025926857221753</v>
       </c>
       <c r="C79">
-        <v>0.1544231086720277</v>
+        <v>-0.1767020969468302</v>
       </c>
       <c r="D79">
-        <v>-0.08318663537211597</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.06250958366861542</v>
+      </c>
+      <c r="E79">
+        <v>0.1086368823562821</v>
+      </c>
+      <c r="F79">
+        <v>0.8047910827650361</v>
+      </c>
+      <c r="G79">
+        <v>-0.3972122266548203</v>
+      </c>
+      <c r="H79">
+        <v>-0.2176393500896068</v>
+      </c>
+      <c r="I79">
+        <v>-0.1575469708398389</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>0.006967302404551201</v>
+        <v>-0.000802546110095601</v>
       </c>
       <c r="C80">
-        <v>0.0480770787666878</v>
+        <v>-0.04853171294296547</v>
       </c>
       <c r="D80">
-        <v>0.04905307423082252</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.04611440424113386</v>
+      </c>
+      <c r="E80">
+        <v>-0.02061149905103313</v>
+      </c>
+      <c r="F80">
+        <v>0.009144855414153828</v>
+      </c>
+      <c r="G80">
+        <v>0.03991826533217935</v>
+      </c>
+      <c r="H80">
+        <v>0.02177963871262328</v>
+      </c>
+      <c r="I80">
+        <v>0.05425087953626907</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>0.1271245621692851</v>
+        <v>-0.05979018277869975</v>
       </c>
       <c r="C81">
-        <v>0.1283438440001462</v>
+        <v>-0.1641536711659334</v>
       </c>
       <c r="D81">
-        <v>-0.06011327982369708</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.07724336326971457</v>
+      </c>
+      <c r="E81">
+        <v>0.06901496697618893</v>
+      </c>
+      <c r="F81">
+        <v>0.04573445723097817</v>
+      </c>
+      <c r="G81">
+        <v>0.04977105138537397</v>
+      </c>
+      <c r="H81">
+        <v>0.06285919084283831</v>
+      </c>
+      <c r="I81">
+        <v>0.1320105478072852</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B82">
-        <v>0.2570554897534774</v>
+        <v>-0.1159889225189321</v>
       </c>
       <c r="C82">
-        <v>0.2888664398373649</v>
+        <v>-0.3243220064596878</v>
       </c>
       <c r="D82">
-        <v>-0.2072023737344658</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.2274287211271926</v>
+      </c>
+      <c r="E82">
+        <v>0.04025400982824422</v>
+      </c>
+      <c r="F82">
+        <v>-0.118400286663302</v>
+      </c>
+      <c r="G82">
+        <v>0.06344963987309708</v>
+      </c>
+      <c r="H82">
+        <v>0.0978051340683206</v>
+      </c>
+      <c r="I82">
+        <v>0.0539925211665</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>-0.003578408366870899</v>
+        <v>0.006528909139976504</v>
       </c>
       <c r="C83">
-        <v>0.05417349098458987</v>
+        <v>-0.03589904877457345</v>
       </c>
       <c r="D83">
-        <v>0.0266575292846338</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.04492258725454237</v>
+      </c>
+      <c r="E83">
+        <v>0.09265886453294975</v>
+      </c>
+      <c r="F83">
+        <v>0.03020510618351572</v>
+      </c>
+      <c r="G83">
+        <v>0.04729421231245737</v>
+      </c>
+      <c r="H83">
+        <v>0.06173725623516813</v>
+      </c>
+      <c r="I83">
+        <v>0.05981286047354976</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B84">
-        <v>-2.983941788922698e-05</v>
+        <v>0.001269531216196039</v>
       </c>
       <c r="C84">
-        <v>0.0005076309849282765</v>
+        <v>-0.01547030449910543</v>
       </c>
       <c r="D84">
-        <v>0.0006161266828376597</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.03793403324715586</v>
+      </c>
+      <c r="E84">
+        <v>0.009426541618339198</v>
+      </c>
+      <c r="F84">
+        <v>0.01278144327084095</v>
+      </c>
+      <c r="G84">
+        <v>0.04586099916387781</v>
+      </c>
+      <c r="H84">
+        <v>-0.01271985817158389</v>
+      </c>
+      <c r="I84">
+        <v>-0.0320588731955564</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>0.1507295113310177</v>
+        <v>-0.07456794297348958</v>
       </c>
       <c r="C85">
-        <v>0.1345273148789267</v>
+        <v>-0.1842965783195736</v>
       </c>
       <c r="D85">
-        <v>-0.04341603482151771</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.08991263321375421</v>
+      </c>
+      <c r="E85">
+        <v>0.00361742317018677</v>
+      </c>
+      <c r="F85">
+        <v>0.07900017613291398</v>
+      </c>
+      <c r="G85">
+        <v>0.03507186629915047</v>
+      </c>
+      <c r="H85">
+        <v>0.01522016861071191</v>
+      </c>
+      <c r="I85">
+        <v>0.1021635286193235</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>0.01280282010799549</v>
+        <v>-0.0107757596229613</v>
       </c>
       <c r="C86">
-        <v>0.0174494944834964</v>
+        <v>-0.0307903944932562</v>
       </c>
       <c r="D86">
-        <v>0.08214028822230157</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.1057801825242797</v>
+      </c>
+      <c r="E86">
+        <v>0.0453707940777252</v>
+      </c>
+      <c r="F86">
+        <v>-0.01618844303575593</v>
+      </c>
+      <c r="G86">
+        <v>-0.0158347236456256</v>
+      </c>
+      <c r="H86">
+        <v>0.0001868464773102901</v>
+      </c>
+      <c r="I86">
+        <v>0.06583241864349278</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>0.01471242976331483</v>
+        <v>-0.0100447489309708</v>
       </c>
       <c r="C87">
-        <v>0.03399189426412196</v>
+        <v>-0.05636061326587306</v>
       </c>
       <c r="D87">
-        <v>0.1195651988647436</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.1417752679070378</v>
+      </c>
+      <c r="E87">
+        <v>0.01307998695342678</v>
+      </c>
+      <c r="F87">
+        <v>0.03557072790955042</v>
+      </c>
+      <c r="G87">
+        <v>0.06974565779552618</v>
+      </c>
+      <c r="H87">
+        <v>0.008921476146647482</v>
+      </c>
+      <c r="I87">
+        <v>-0.05787527566418484</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>0.06008612058484113</v>
+        <v>-0.03377369330618128</v>
       </c>
       <c r="C88">
-        <v>0.04897718474706886</v>
+        <v>-0.06938011476752613</v>
       </c>
       <c r="D88">
-        <v>0.04751042246527516</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.01327229250937438</v>
+      </c>
+      <c r="E88">
+        <v>-0.01157931915597405</v>
+      </c>
+      <c r="F88">
+        <v>0.02789762027984174</v>
+      </c>
+      <c r="G88">
+        <v>0.005851529676162649</v>
+      </c>
+      <c r="H88">
+        <v>0.04819934862664964</v>
+      </c>
+      <c r="I88">
+        <v>0.05556253053303046</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>0.3084643475889764</v>
+        <v>-0.405480882736883</v>
       </c>
       <c r="C89">
-        <v>-0.338025976041804</v>
+        <v>0.1857451645974115</v>
       </c>
       <c r="D89">
-        <v>0.04568850104696705</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.03424905688119603</v>
+      </c>
+      <c r="E89">
+        <v>0.01794940064483438</v>
+      </c>
+      <c r="F89">
+        <v>0.06550447459985349</v>
+      </c>
+      <c r="G89">
+        <v>0.03822910728981741</v>
+      </c>
+      <c r="H89">
+        <v>0.133373705925254</v>
+      </c>
+      <c r="I89">
+        <v>-0.3832210220582872</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>0.2500286901831157</v>
+        <v>-0.3122007165062222</v>
       </c>
       <c r="C90">
-        <v>-0.2504269181818126</v>
+        <v>0.1243623747810205</v>
       </c>
       <c r="D90">
-        <v>0.03590263062687437</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.03237812847648697</v>
+      </c>
+      <c r="E90">
+        <v>0.01844431202769314</v>
+      </c>
+      <c r="F90">
+        <v>-0.0175584284203345</v>
+      </c>
+      <c r="G90">
+        <v>0.06823812261132678</v>
+      </c>
+      <c r="H90">
+        <v>-0.02038570570291947</v>
+      </c>
+      <c r="I90">
+        <v>0.07850297005788306</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>0.1589730333192925</v>
+        <v>-0.08073760447713668</v>
       </c>
       <c r="C91">
-        <v>0.1762507885244878</v>
+        <v>-0.2050323354769766</v>
       </c>
       <c r="D91">
-        <v>-0.09767783583285289</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.1104131551175221</v>
+      </c>
+      <c r="E91">
+        <v>0.06951284400954444</v>
+      </c>
+      <c r="F91">
+        <v>0.07890687173816474</v>
+      </c>
+      <c r="G91">
+        <v>0.01285955618781885</v>
+      </c>
+      <c r="H91">
+        <v>0.007518580805621714</v>
+      </c>
+      <c r="I91">
+        <v>0.126702643545615</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>0.2224316852027712</v>
+        <v>-0.3222139833723727</v>
       </c>
       <c r="C92">
-        <v>-0.2588935377877832</v>
+        <v>0.160257730491435</v>
       </c>
       <c r="D92">
-        <v>-0.04536181673518726</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.006400878713786923</v>
+      </c>
+      <c r="E92">
+        <v>0.08503923430965302</v>
+      </c>
+      <c r="F92">
+        <v>0.02436994766481349</v>
+      </c>
+      <c r="G92">
+        <v>0.0387880742244977</v>
+      </c>
+      <c r="H92">
+        <v>0.02611753314495709</v>
+      </c>
+      <c r="I92">
+        <v>-0.1481640508353912</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>0.2706671219120766</v>
+        <v>-0.3297260315861304</v>
       </c>
       <c r="C93">
-        <v>-0.2581127110532861</v>
+        <v>0.1332867748943972</v>
       </c>
       <c r="D93">
-        <v>0.01649936398618701</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.01451120211839938</v>
+      </c>
+      <c r="E93">
+        <v>-0.02504480115186844</v>
+      </c>
+      <c r="F93">
+        <v>0.01518937205294434</v>
+      </c>
+      <c r="G93">
+        <v>-0.01360532830249065</v>
+      </c>
+      <c r="H93">
+        <v>0.00879566770816775</v>
+      </c>
+      <c r="I93">
+        <v>0.1062565312268046</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>0.3103687257749496</v>
+        <v>-0.1602014052794668</v>
       </c>
       <c r="C94">
-        <v>0.255030906484556</v>
+        <v>-0.3502740507704094</v>
       </c>
       <c r="D94">
-        <v>-0.3832647132122419</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.3578036269163902</v>
+      </c>
+      <c r="E94">
+        <v>0.04226912233517099</v>
+      </c>
+      <c r="F94">
+        <v>-0.1192636588644408</v>
+      </c>
+      <c r="G94">
+        <v>0.3095988604490404</v>
+      </c>
+      <c r="H94">
+        <v>-0.1014995265802413</v>
+      </c>
+      <c r="I94">
+        <v>-0.4265308060893403</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>0.02414918891127937</v>
+        <v>-0.023013272493509</v>
       </c>
       <c r="C95">
-        <v>0.0385266564058727</v>
+        <v>-0.06262724895609073</v>
       </c>
       <c r="D95">
-        <v>0.09078064894653125</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.1153243532646104</v>
+      </c>
+      <c r="E95">
+        <v>0.203724531450664</v>
+      </c>
+      <c r="F95">
+        <v>-0.07095935290049314</v>
+      </c>
+      <c r="G95">
+        <v>-0.1057099461859876</v>
+      </c>
+      <c r="H95">
+        <v>0.3893105906002099</v>
+      </c>
+      <c r="I95">
+        <v>-0.4813790649042035</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,38 +3475,83 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>-0.0002855410575854668</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>0.0002190006376717755</v>
       </c>
       <c r="D97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.0001136732393402503</v>
+      </c>
+      <c r="E97">
+        <v>-0.0004520524959329447</v>
+      </c>
+      <c r="F97">
+        <v>-0.001787387549228613</v>
+      </c>
+      <c r="G97">
+        <v>-0.0005002440325722443</v>
+      </c>
+      <c r="H97">
+        <v>-0.001080507525518073</v>
+      </c>
+      <c r="I97">
+        <v>-0.0004584351475955646</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>0.1475843154744839</v>
+        <v>-0.1181182389380824</v>
       </c>
       <c r="C98">
-        <v>0.07323248319285783</v>
+        <v>-0.1368633668378771</v>
       </c>
       <c r="D98">
-        <v>0.1052921391636225</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.06083701735849139</v>
+      </c>
+      <c r="E98">
+        <v>-0.2681685498569334</v>
+      </c>
+      <c r="F98">
+        <v>-0.1693077634479843</v>
+      </c>
+      <c r="G98">
+        <v>-0.2628970579989189</v>
+      </c>
+      <c r="H98">
+        <v>-0.1478963480635264</v>
+      </c>
+      <c r="I98">
+        <v>-0.03709802662279362</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +3562,25 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +3591,83 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>0.0004074909920772758</v>
+        <v>-0.001168776913284511</v>
       </c>
       <c r="C101">
-        <v>0.02249193676321085</v>
+        <v>-0.03019113571717703</v>
       </c>
       <c r="D101">
-        <v>0.1025221643374368</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.09805734580553191</v>
+      </c>
+      <c r="E101">
+        <v>-0.03709162445488662</v>
+      </c>
+      <c r="F101">
+        <v>0.02895951322855102</v>
+      </c>
+      <c r="G101">
+        <v>0.01115990592300572</v>
+      </c>
+      <c r="H101">
+        <v>0.1159215355970874</v>
+      </c>
+      <c r="I101">
+        <v>0.01735185086833425</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>0.1132155015180755</v>
+        <v>-0.04441809120052398</v>
       </c>
       <c r="C102">
-        <v>0.1480386358753202</v>
+        <v>-0.1517953676415072</v>
       </c>
       <c r="D102">
-        <v>-0.07396688576332561</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.09461450032144812</v>
+      </c>
+      <c r="E102">
+        <v>0.03057405996041907</v>
+      </c>
+      <c r="F102">
+        <v>-0.06296895296355412</v>
+      </c>
+      <c r="G102">
+        <v>-0.007319029810829712</v>
+      </c>
+      <c r="H102">
+        <v>0.05449177474767771</v>
+      </c>
+      <c r="I102">
+        <v>0.02367277433707555</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3678,25 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3705,21 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
